--- a/Excel/Hasil_Pengujian_Map_2_128_avg_length.xlsx
+++ b/Excel/Hasil_Pengujian_Map_2_128_avg_length.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFF1EC-6583-452D-9359-5A3FEA17630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D0103-7362-4F0E-99FB-F3C3E92521A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,462 +644,462 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>3.6870000000000013E-4</v>
+        <v>4.5369999999999991E-4</v>
       </c>
       <c r="D2">
-        <v>7.0600000000000003E-4</v>
+        <v>2.5766999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>2.0051000000000001E-3</v>
+        <v>1.7331900000000001E-2</v>
       </c>
       <c r="F2">
-        <v>7.8796999999999999E-3</v>
+        <v>0.1128358</v>
       </c>
       <c r="G2">
-        <v>2.7398750000000001E-3</v>
+        <v>3.3299525000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.5419999999999999E-4</v>
+        <v>2.4369999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>7.1389999999999995E-4</v>
+        <v>1.0608E-3</v>
       </c>
       <c r="E3">
-        <v>2.0157E-3</v>
+        <v>4.5370000000000002E-3</v>
       </c>
       <c r="F3">
-        <v>7.9481000000000013E-3</v>
+        <v>1.8512500000000001E-2</v>
       </c>
       <c r="G3">
-        <v>2.7579750000000002E-3</v>
+        <v>6.0884999999999993E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.3229999999999988E-4</v>
+        <v>4.6870000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>7.8189999999999998E-4</v>
+        <v>1.6720999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>2.0466999999999998E-3</v>
+        <v>8.9476999999999994E-3</v>
       </c>
       <c r="F4">
-        <v>8.0779000000000007E-3</v>
+        <v>6.8702400000000011E-2</v>
       </c>
       <c r="G4">
-        <v>2.8346999999999999E-3</v>
+        <v>1.9947724999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4.0410000000000001E-4</v>
+        <v>3.4309999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>7.7379999999999994E-4</v>
+        <v>1.9772000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>2.0620999999999999E-3</v>
+        <v>1.38592E-2</v>
       </c>
       <c r="F5">
-        <v>8.2317000000000015E-3</v>
+        <v>9.3201800000000001E-2</v>
       </c>
       <c r="G5">
-        <v>2.8679249999999999E-3</v>
+        <v>2.7345325E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3.3789999999999997E-4</v>
+        <v>4.4210000000000001E-4</v>
       </c>
       <c r="D6">
-        <v>8.8660000000000008E-4</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>2.3988E-3</v>
+        <v>5.0952999999999997E-3</v>
       </c>
       <c r="F6">
-        <v>1.0048E-2</v>
+        <v>2.1799900000000001E-2</v>
       </c>
       <c r="G6">
-        <v>3.4178250000000002E-3</v>
+        <v>7.1768250000000004E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3.6549999999999999E-4</v>
+        <v>5.4449999999999995E-4</v>
       </c>
       <c r="D7">
-        <v>9.7350000000000008E-4</v>
+        <v>2.6676E-3</v>
       </c>
       <c r="E7">
-        <v>2.4970000000000001E-3</v>
+        <v>1.7534999999999999E-2</v>
       </c>
       <c r="F7">
-        <v>1.00599E-2</v>
+        <v>0.11344220000000001</v>
       </c>
       <c r="G7">
-        <v>3.4739749999999998E-3</v>
+        <v>3.3547325000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>3.7290000000000001E-4</v>
+        <v>5.0509999999999997E-4</v>
       </c>
       <c r="D8">
-        <v>9.4580000000000011E-4</v>
+        <v>2.4480000000000001E-3</v>
       </c>
       <c r="E8">
-        <v>2.671499999999999E-3</v>
+        <v>1.51568E-2</v>
       </c>
       <c r="F8">
-        <v>1.07286E-2</v>
+        <v>0.1014058</v>
       </c>
       <c r="G8">
-        <v>3.6797000000000002E-3</v>
+        <v>2.9878925000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3.9809999999999997E-4</v>
+        <v>3.322E-4</v>
       </c>
       <c r="D9">
-        <v>9.7050000000000001E-4</v>
+        <v>1.2578999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>2.6959000000000002E-3</v>
+        <v>4.8694000000000003E-3</v>
       </c>
       <c r="F9">
-        <v>1.0699800000000001E-2</v>
+        <v>2.2424400000000001E-2</v>
       </c>
       <c r="G9">
-        <v>3.6910749999999998E-3</v>
+        <v>7.220975000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>2.5789999999999998E-4</v>
+        <v>2.153E-4</v>
       </c>
       <c r="D10">
-        <v>9.7910000000000011E-4</v>
+        <v>8.6919999999999999E-4</v>
       </c>
       <c r="E10">
-        <v>2.7962999999999998E-3</v>
+        <v>4.0118000000000003E-3</v>
       </c>
       <c r="F10">
-        <v>1.0923199999999999E-2</v>
+        <v>1.8116E-2</v>
       </c>
       <c r="G10">
-        <v>3.7391249999999998E-3</v>
+        <v>5.8030750000000004E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>4.0119999999999999E-4</v>
+        <v>2.9480000000000001E-4</v>
       </c>
       <c r="D11">
-        <v>1.0302E-3</v>
+        <v>1.1272999999999999E-3</v>
       </c>
       <c r="E11">
-        <v>2.7659999999999998E-3</v>
+        <v>4.7669999999999987E-3</v>
       </c>
       <c r="F11">
-        <v>1.08091E-2</v>
+        <v>1.9294200000000001E-2</v>
       </c>
       <c r="G11">
-        <v>3.7516250000000002E-3</v>
+        <v>6.3708250000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>4.3300000000000012E-4</v>
+        <v>2.5829999999999999E-4</v>
       </c>
       <c r="D12">
-        <v>1.042E-3</v>
+        <v>1.0885999999999999E-3</v>
       </c>
       <c r="E12">
-        <v>2.8345000000000002E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
       <c r="F12">
-        <v>1.0882299999999999E-2</v>
+        <v>1.8969300000000001E-2</v>
       </c>
       <c r="G12">
-        <v>3.79795E-3</v>
+        <v>6.2060500000000003E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>3.0850000000000002E-4</v>
+        <v>4.9540000000000001E-4</v>
       </c>
       <c r="D13">
-        <v>9.6469999999999998E-4</v>
+        <v>1.7788999999999999E-3</v>
       </c>
       <c r="E13">
-        <v>2.8965000000000011E-3</v>
+        <v>9.2152000000000015E-3</v>
       </c>
       <c r="F13">
-        <v>1.10635E-2</v>
+        <v>6.8985999999999992E-2</v>
       </c>
       <c r="G13">
-        <v>3.8083000000000001E-3</v>
+        <v>2.0118875000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>3.5480000000000011E-4</v>
+        <v>4.6349999999999999E-4</v>
       </c>
       <c r="D14">
-        <v>1.1086E-3</v>
+        <v>2.3541999999999999E-3</v>
       </c>
       <c r="E14">
-        <v>3.1724000000000001E-3</v>
+        <v>1.1688199999999999E-2</v>
       </c>
       <c r="F14">
-        <v>1.17792E-2</v>
+        <v>9.7354499999999997E-2</v>
       </c>
       <c r="G14">
-        <v>4.1037499999999998E-3</v>
+        <v>2.79651E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>3.835E-4</v>
+        <v>5.1669999999999993E-4</v>
       </c>
       <c r="D15">
-        <v>1.1659000000000001E-3</v>
+        <v>3.2544000000000002E-3</v>
       </c>
       <c r="E15">
-        <v>3.2068999999999999E-3</v>
+        <v>1.1013500000000001E-2</v>
       </c>
       <c r="F15">
-        <v>1.20389E-2</v>
+        <v>6.9107000000000002E-2</v>
       </c>
       <c r="G15">
-        <v>4.1987999999999999E-3</v>
+        <v>2.0972899999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>3.6820000000000001E-4</v>
+        <v>3.8989999999999999E-4</v>
       </c>
       <c r="D16">
-        <v>1.1957000000000001E-3</v>
+        <v>2.1064999999999999E-3</v>
       </c>
       <c r="E16">
-        <v>3.4577000000000002E-3</v>
+        <v>1.4146799999999999E-2</v>
       </c>
       <c r="F16">
-        <v>1.1915E-2</v>
+        <v>9.0486200000000003E-2</v>
       </c>
       <c r="G16">
-        <v>4.2341499999999999E-3</v>
+        <v>2.678235E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>4.1119999999999991E-4</v>
+        <v>3.7760000000000002E-4</v>
       </c>
       <c r="D17">
-        <v>1.1995E-3</v>
+        <v>2.1497999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>3.5533000000000001E-3</v>
+        <v>1.3687100000000001E-2</v>
       </c>
       <c r="F17">
-        <v>1.2168200000000001E-2</v>
+        <v>8.4761899999999987E-2</v>
       </c>
       <c r="G17">
-        <v>4.3330499999999997E-3</v>
+        <v>2.5244099999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>3.481E-4</v>
+        <v>3.0400000000000002E-4</v>
       </c>
       <c r="D18">
-        <v>9.5779999999999997E-4</v>
+        <v>9.7630000000000004E-4</v>
       </c>
       <c r="E18">
-        <v>3.3587999999999999E-3</v>
+        <v>4.1778000000000006E-3</v>
       </c>
       <c r="F18">
-        <v>1.4114099999999999E-2</v>
+        <v>1.6352499999999999E-2</v>
       </c>
       <c r="G18">
-        <v>4.6946999999999996E-3</v>
+        <v>5.4526499999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>3.7869999999999999E-4</v>
+        <v>3.6870000000000013E-4</v>
       </c>
       <c r="D19">
-        <v>1.0624E-3</v>
+        <v>7.0600000000000003E-4</v>
       </c>
       <c r="E19">
-        <v>3.4594000000000001E-3</v>
+        <v>2.0051000000000001E-3</v>
       </c>
       <c r="F19">
-        <v>1.42585E-2</v>
+        <v>7.8796999999999999E-3</v>
       </c>
       <c r="G19">
-        <v>4.7897499999999997E-3</v>
+        <v>2.7398750000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>4.2830000000000011E-4</v>
+        <v>3.9090000000000001E-4</v>
       </c>
       <c r="D20">
-        <v>1.3244000000000001E-3</v>
+        <v>1.2461E-3</v>
       </c>
       <c r="E20">
-        <v>4.1013000000000004E-3</v>
+        <v>4.0076999999999986E-3</v>
       </c>
       <c r="F20">
-        <v>1.5057299999999999E-2</v>
+        <v>1.55573E-2</v>
       </c>
       <c r="G20">
-        <v>5.2278250000000002E-3</v>
+        <v>5.3004999999999997E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>3.9589999999999997E-4</v>
+        <v>4.8229999999999991E-4</v>
       </c>
       <c r="D21">
-        <v>1.2612999999999999E-3</v>
+        <v>1.4303E-3</v>
       </c>
       <c r="E21">
-        <v>4.1029999999999999E-3</v>
+        <v>5.3486000000000002E-3</v>
       </c>
       <c r="F21">
-        <v>1.5413899999999999E-2</v>
+        <v>2.20389E-2</v>
       </c>
       <c r="G21">
-        <v>5.2935250000000003E-3</v>
+        <v>7.3250250000000006E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1107,68 +1107,68 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>3.9090000000000001E-4</v>
+        <v>4.4890000000000002E-4</v>
       </c>
       <c r="D22">
-        <v>1.2461E-3</v>
+        <v>1.3718000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>4.0076999999999986E-3</v>
+        <v>4.9328000000000002E-3</v>
       </c>
       <c r="F22">
-        <v>1.55573E-2</v>
+        <v>2.08256E-2</v>
       </c>
       <c r="G22">
-        <v>5.3004999999999997E-3</v>
+        <v>6.8947750000000014E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>4.504E-4</v>
+        <v>4.9379999999999986E-4</v>
       </c>
       <c r="D23">
-        <v>1.4197000000000001E-3</v>
+        <v>2.5674000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>4.1148000000000001E-3</v>
+        <v>1.53534E-2</v>
       </c>
       <c r="F23">
-        <v>1.53972E-2</v>
+        <v>0.1029938</v>
       </c>
       <c r="G23">
-        <v>5.3455250000000003E-3</v>
+        <v>3.03521E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>3.0400000000000002E-4</v>
+        <v>3.7839999999999998E-4</v>
       </c>
       <c r="D24">
-        <v>9.7630000000000004E-4</v>
+        <v>1.3661999999999999E-3</v>
       </c>
       <c r="E24">
-        <v>4.1778000000000006E-3</v>
+        <v>5.1113E-3</v>
       </c>
       <c r="F24">
-        <v>1.6352499999999999E-2</v>
+        <v>2.2863399999999999E-2</v>
       </c>
       <c r="G24">
-        <v>5.4526499999999999E-3</v>
+        <v>7.4298249999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1176,137 +1176,137 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>3.4119999999999989E-4</v>
+        <v>4.0049999999999998E-4</v>
       </c>
       <c r="D25">
-        <v>1.0463E-3</v>
+        <v>1.4844000000000001E-3</v>
       </c>
       <c r="E25">
-        <v>4.2389999999999997E-3</v>
+        <v>5.8367000000000002E-3</v>
       </c>
       <c r="F25">
-        <v>1.64896E-2</v>
+        <v>3.10069E-2</v>
       </c>
       <c r="G25">
-        <v>5.5290249999999999E-3</v>
+        <v>9.6821250000000015E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>3.6479999999999998E-4</v>
+        <v>3.7219999999999999E-4</v>
       </c>
       <c r="D26">
-        <v>9.8450000000000013E-4</v>
+        <v>1.4283E-3</v>
       </c>
       <c r="E26">
-        <v>3.6045999999999999E-3</v>
+        <v>7.1749000000000014E-3</v>
       </c>
       <c r="F26">
-        <v>1.7976499999999999E-2</v>
+        <v>3.9199400000000002E-2</v>
       </c>
       <c r="G26">
-        <v>5.7326000000000009E-3</v>
+        <v>1.2043699999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>3.0939999999999988E-4</v>
+        <v>2.6249999999999998E-4</v>
       </c>
       <c r="D27">
-        <v>8.9690000000000017E-4</v>
+        <v>9.850000000000002E-4</v>
       </c>
       <c r="E27">
-        <v>3.5197999999999991E-3</v>
+        <v>4.3097999999999999E-3</v>
       </c>
       <c r="F27">
-        <v>1.84701E-2</v>
+        <v>1.9024099999999999E-2</v>
       </c>
       <c r="G27">
-        <v>5.79905E-3</v>
+        <v>6.1453499999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>2.153E-4</v>
+        <v>2.6499999999999999E-4</v>
       </c>
       <c r="D28">
-        <v>8.6919999999999999E-4</v>
+        <v>9.6600000000000006E-4</v>
       </c>
       <c r="E28">
-        <v>4.0118000000000003E-3</v>
+        <v>4.2024999999999996E-3</v>
       </c>
       <c r="F28">
-        <v>1.8116E-2</v>
+        <v>1.8589399999999999E-2</v>
       </c>
       <c r="G28">
-        <v>5.8030750000000004E-3</v>
+        <v>6.005725E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>3.6569999999999989E-4</v>
+        <v>3.1260000000000012E-4</v>
       </c>
       <c r="D29">
-        <v>1.0727E-3</v>
+        <v>1.1865999999999999E-3</v>
       </c>
       <c r="E29">
-        <v>3.7226999999999998E-3</v>
+        <v>4.7000999999999996E-3</v>
       </c>
       <c r="F29">
-        <v>1.8159999999999999E-2</v>
+        <v>1.9624099999999998E-2</v>
       </c>
       <c r="G29">
-        <v>5.8302750000000011E-3</v>
+        <v>6.4558499999999991E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>4.035000000000001E-4</v>
+        <v>4.9850000000000003E-4</v>
       </c>
       <c r="D30">
-        <v>1.1776E-3</v>
+        <v>2.4784999999999998E-3</v>
       </c>
       <c r="E30">
-        <v>3.8337000000000002E-3</v>
+        <v>1.08462E-2</v>
       </c>
       <c r="F30">
-        <v>1.8436899999999999E-2</v>
+        <v>9.8121199999999992E-2</v>
       </c>
       <c r="G30">
-        <v>5.962925E-3</v>
+        <v>2.79861E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1314,45 +1314,45 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>2.6499999999999999E-4</v>
+        <v>5.5089999999999989E-4</v>
       </c>
       <c r="D31">
-        <v>9.6600000000000006E-4</v>
+        <v>2.0195E-3</v>
       </c>
       <c r="E31">
-        <v>4.2024999999999996E-3</v>
+        <v>1.12812E-2</v>
       </c>
       <c r="F31">
-        <v>1.8589399999999999E-2</v>
+        <v>6.9548199999999991E-2</v>
       </c>
       <c r="G31">
-        <v>6.005725E-3</v>
+        <v>2.0849949999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>2.4369999999999999E-4</v>
+        <v>5.0540000000000003E-4</v>
       </c>
       <c r="D32">
-        <v>1.0608E-3</v>
+        <v>1.9719999999999998E-3</v>
       </c>
       <c r="E32">
-        <v>4.5370000000000002E-3</v>
+        <v>1.1534600000000001E-2</v>
       </c>
       <c r="F32">
-        <v>1.8512500000000001E-2</v>
+        <v>6.9500900000000004E-2</v>
       </c>
       <c r="G32">
-        <v>6.0884999999999993E-3</v>
+        <v>2.0878225E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1360,91 +1360,91 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>2.6249999999999998E-4</v>
+        <v>4.306E-4</v>
       </c>
       <c r="D33">
-        <v>9.850000000000002E-4</v>
+        <v>2.2353999999999998E-3</v>
       </c>
       <c r="E33">
-        <v>4.3097999999999999E-3</v>
+        <v>1.3970099999999999E-2</v>
       </c>
       <c r="F33">
-        <v>1.9024099999999999E-2</v>
+        <v>8.5693900000000003E-2</v>
       </c>
       <c r="G33">
-        <v>6.1453499999999999E-3</v>
+        <v>2.5582500000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>2.5829999999999999E-4</v>
+        <v>3.3789999999999997E-4</v>
       </c>
       <c r="D34">
-        <v>1.0885999999999999E-3</v>
+        <v>8.8660000000000008E-4</v>
       </c>
       <c r="E34">
-        <v>4.5079999999999999E-3</v>
+        <v>2.3988E-3</v>
       </c>
       <c r="F34">
-        <v>1.8969300000000001E-2</v>
+        <v>1.0048E-2</v>
       </c>
       <c r="G34">
-        <v>6.2060500000000003E-3</v>
+        <v>3.4178250000000002E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>3.0529999999999999E-4</v>
+        <v>2.5789999999999998E-4</v>
       </c>
       <c r="D35">
-        <v>1.0748999999999999E-3</v>
+        <v>9.7910000000000011E-4</v>
       </c>
       <c r="E35">
-        <v>4.4188999999999999E-3</v>
+        <v>2.7962999999999998E-3</v>
       </c>
       <c r="F35">
-        <v>1.9277599999999999E-2</v>
+        <v>1.0923199999999999E-2</v>
       </c>
       <c r="G35">
-        <v>6.2691750000000001E-3</v>
+        <v>3.7391249999999998E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>2.9480000000000001E-4</v>
+        <v>3.4119999999999989E-4</v>
       </c>
       <c r="D36">
-        <v>1.1272999999999999E-3</v>
+        <v>1.0463E-3</v>
       </c>
       <c r="E36">
-        <v>4.7669999999999987E-3</v>
+        <v>4.2389999999999997E-3</v>
       </c>
       <c r="F36">
-        <v>1.9294200000000001E-2</v>
+        <v>1.64896E-2</v>
       </c>
       <c r="G36">
-        <v>6.3708250000000001E-3</v>
+        <v>5.5290249999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,45 +1452,45 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>3.1260000000000012E-4</v>
+        <v>3.481E-4</v>
       </c>
       <c r="D37">
-        <v>1.1865999999999999E-3</v>
+        <v>9.5779999999999997E-4</v>
       </c>
       <c r="E37">
-        <v>4.7000999999999996E-3</v>
+        <v>3.3587999999999999E-3</v>
       </c>
       <c r="F37">
-        <v>1.9624099999999998E-2</v>
+        <v>1.4114099999999999E-2</v>
       </c>
       <c r="G37">
-        <v>6.4558499999999991E-3</v>
+        <v>4.6946999999999996E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>4.4890000000000002E-4</v>
+        <v>4.0410000000000001E-4</v>
       </c>
       <c r="D38">
-        <v>1.3718000000000001E-3</v>
+        <v>7.7379999999999994E-4</v>
       </c>
       <c r="E38">
-        <v>4.9328000000000002E-3</v>
+        <v>2.0620999999999999E-3</v>
       </c>
       <c r="F38">
-        <v>2.08256E-2</v>
+        <v>8.2317000000000015E-3</v>
       </c>
       <c r="G38">
-        <v>6.8947750000000014E-3</v>
+        <v>2.8679249999999999E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1498,91 +1498,91 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>4.9619999999999992E-4</v>
+        <v>3.5419999999999999E-4</v>
       </c>
       <c r="D39">
-        <v>1.4368E-3</v>
+        <v>7.1389999999999995E-4</v>
       </c>
       <c r="E39">
-        <v>4.9050000000000014E-3</v>
+        <v>2.0157E-3</v>
       </c>
       <c r="F39">
-        <v>2.0969499999999999E-2</v>
+        <v>7.9481000000000013E-3</v>
       </c>
       <c r="G39">
-        <v>6.9518749999999997E-3</v>
+        <v>2.7579750000000002E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>4.4210000000000001E-4</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="D40">
-        <v>1.3699999999999999E-3</v>
+        <v>9.4580000000000011E-4</v>
       </c>
       <c r="E40">
-        <v>5.0952999999999997E-3</v>
+        <v>2.671499999999999E-3</v>
       </c>
       <c r="F40">
-        <v>2.1799900000000001E-2</v>
+        <v>1.07286E-2</v>
       </c>
       <c r="G40">
-        <v>7.1768250000000004E-3</v>
+        <v>3.6797000000000002E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>3.322E-4</v>
+        <v>4.2830000000000011E-4</v>
       </c>
       <c r="D41">
-        <v>1.2578999999999999E-3</v>
+        <v>1.3244000000000001E-3</v>
       </c>
       <c r="E41">
-        <v>4.8694000000000003E-3</v>
+        <v>4.1013000000000004E-3</v>
       </c>
       <c r="F41">
-        <v>2.2424400000000001E-2</v>
+        <v>1.5057299999999999E-2</v>
       </c>
       <c r="G41">
-        <v>7.220975000000001E-3</v>
+        <v>5.2278250000000002E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>4.8229999999999991E-4</v>
+        <v>3.9589999999999997E-4</v>
       </c>
       <c r="D42">
-        <v>1.4303E-3</v>
+        <v>1.2612999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>5.3486000000000002E-3</v>
+        <v>4.1029999999999999E-3</v>
       </c>
       <c r="F42">
-        <v>2.20389E-2</v>
+        <v>1.5413899999999999E-2</v>
       </c>
       <c r="G42">
-        <v>7.3250250000000006E-3</v>
+        <v>5.2935250000000003E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1590,22 +1590,22 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>3.7839999999999998E-4</v>
+        <v>4.9619999999999992E-4</v>
       </c>
       <c r="D43">
-        <v>1.3661999999999999E-3</v>
+        <v>1.4368E-3</v>
       </c>
       <c r="E43">
-        <v>5.1113E-3</v>
+        <v>4.9050000000000014E-3</v>
       </c>
       <c r="F43">
-        <v>2.2863399999999999E-2</v>
+        <v>2.0969499999999999E-2</v>
       </c>
       <c r="G43">
-        <v>7.4298249999999993E-3</v>
+        <v>6.9518749999999997E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1633,25 +1633,25 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>4.0049999999999998E-4</v>
+        <v>4.0789999999999999E-4</v>
       </c>
       <c r="D45">
-        <v>1.4844000000000001E-3</v>
+        <v>1.5498E-3</v>
       </c>
       <c r="E45">
-        <v>5.8367000000000002E-3</v>
+        <v>7.4861000000000007E-3</v>
       </c>
       <c r="F45">
-        <v>3.10069E-2</v>
+        <v>4.0048399999999998E-2</v>
       </c>
       <c r="G45">
-        <v>9.6821250000000015E-3</v>
+        <v>1.237305E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1679,48 +1679,48 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>3.7219999999999999E-4</v>
+        <v>3.0529999999999999E-4</v>
       </c>
       <c r="D47">
-        <v>1.4283E-3</v>
+        <v>1.0748999999999999E-3</v>
       </c>
       <c r="E47">
-        <v>7.1749000000000014E-3</v>
+        <v>4.4188999999999999E-3</v>
       </c>
       <c r="F47">
-        <v>3.9199400000000002E-2</v>
+        <v>1.9277599999999999E-2</v>
       </c>
       <c r="G47">
-        <v>1.2043699999999999E-2</v>
+        <v>6.2691750000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>4.2349999999999999E-4</v>
+        <v>5.5329999999999995E-4</v>
       </c>
       <c r="D48">
-        <v>1.6831999999999999E-3</v>
+        <v>2.0861999999999999E-3</v>
       </c>
       <c r="E48">
-        <v>9.0103000000000023E-3</v>
+        <v>1.14958E-2</v>
       </c>
       <c r="F48">
-        <v>3.7545099999999998E-2</v>
+        <v>7.0478799999999994E-2</v>
       </c>
       <c r="G48">
-        <v>1.2165525E-2</v>
+        <v>2.1153524999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1728,137 +1728,137 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>4.0789999999999999E-4</v>
+        <v>3.6549999999999999E-4</v>
       </c>
       <c r="D49">
-        <v>1.5498E-3</v>
+        <v>9.7350000000000008E-4</v>
       </c>
       <c r="E49">
-        <v>7.4861000000000007E-3</v>
+        <v>2.4970000000000001E-3</v>
       </c>
       <c r="F49">
-        <v>4.0048399999999998E-2</v>
+        <v>1.00599E-2</v>
       </c>
       <c r="G49">
-        <v>1.237305E-2</v>
+        <v>3.4739749999999998E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>4.6870000000000001E-4</v>
+        <v>3.6820000000000001E-4</v>
       </c>
       <c r="D50">
-        <v>1.6720999999999999E-3</v>
+        <v>1.1957000000000001E-3</v>
       </c>
       <c r="E50">
-        <v>8.9476999999999994E-3</v>
+        <v>3.4577000000000002E-3</v>
       </c>
       <c r="F50">
-        <v>6.8702400000000011E-2</v>
+        <v>1.1915E-2</v>
       </c>
       <c r="G50">
-        <v>1.9947724999999999E-2</v>
+        <v>4.2341499999999999E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>4.9540000000000001E-4</v>
+        <v>3.5480000000000011E-4</v>
       </c>
       <c r="D51">
-        <v>1.7788999999999999E-3</v>
+        <v>1.1086E-3</v>
       </c>
       <c r="E51">
-        <v>9.2152000000000015E-3</v>
+        <v>3.1724000000000001E-3</v>
       </c>
       <c r="F51">
-        <v>6.8985999999999992E-2</v>
+        <v>1.17792E-2</v>
       </c>
       <c r="G51">
-        <v>2.0118875000000001E-2</v>
+        <v>4.1037499999999998E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>5.5089999999999989E-4</v>
+        <v>3.0850000000000002E-4</v>
       </c>
       <c r="D52">
-        <v>2.0195E-3</v>
+        <v>9.6469999999999998E-4</v>
       </c>
       <c r="E52">
-        <v>1.12812E-2</v>
+        <v>2.8965000000000011E-3</v>
       </c>
       <c r="F52">
-        <v>6.9548199999999991E-2</v>
+        <v>1.10635E-2</v>
       </c>
       <c r="G52">
-        <v>2.0849949999999999E-2</v>
+        <v>3.8083000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>5.0540000000000003E-4</v>
+        <v>3.0939999999999988E-4</v>
       </c>
       <c r="D53">
-        <v>1.9719999999999998E-3</v>
+        <v>8.9690000000000017E-4</v>
       </c>
       <c r="E53">
-        <v>1.1534600000000001E-2</v>
+        <v>3.5197999999999991E-3</v>
       </c>
       <c r="F53">
-        <v>6.9500900000000004E-2</v>
+        <v>1.84701E-2</v>
       </c>
       <c r="G53">
-        <v>2.0878225E-2</v>
+        <v>5.79905E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>5.1669999999999993E-4</v>
+        <v>3.7869999999999999E-4</v>
       </c>
       <c r="D54">
-        <v>3.2544000000000002E-3</v>
+        <v>1.0624E-3</v>
       </c>
       <c r="E54">
-        <v>1.1013500000000001E-2</v>
+        <v>3.4594000000000001E-3</v>
       </c>
       <c r="F54">
-        <v>6.9107000000000002E-2</v>
+        <v>1.42585E-2</v>
       </c>
       <c r="G54">
-        <v>2.0972899999999999E-2</v>
+        <v>4.7897499999999997E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1866,258 +1866,259 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>5.5329999999999995E-4</v>
+        <v>4.3229999999999988E-4</v>
       </c>
       <c r="D55">
-        <v>2.0861999999999999E-3</v>
+        <v>7.8189999999999998E-4</v>
       </c>
       <c r="E55">
-        <v>1.14958E-2</v>
+        <v>2.0466999999999998E-3</v>
       </c>
       <c r="F55">
-        <v>7.0478799999999994E-2</v>
+        <v>8.0779000000000007E-3</v>
       </c>
       <c r="G55">
-        <v>2.1153524999999999E-2</v>
+        <v>2.8346999999999999E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>3.7760000000000002E-4</v>
+        <v>4.0119999999999999E-4</v>
       </c>
       <c r="D56">
-        <v>2.1497999999999999E-3</v>
+        <v>1.0302E-3</v>
       </c>
       <c r="E56">
-        <v>1.3687100000000001E-2</v>
+        <v>2.7659999999999998E-3</v>
       </c>
       <c r="F56">
-        <v>8.4761899999999987E-2</v>
+        <v>1.08091E-2</v>
       </c>
       <c r="G56">
-        <v>2.5244099999999998E-2</v>
+        <v>3.7516250000000002E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>4.306E-4</v>
+        <v>3.9809999999999997E-4</v>
       </c>
       <c r="D57">
-        <v>2.2353999999999998E-3</v>
+        <v>9.7050000000000001E-4</v>
       </c>
       <c r="E57">
-        <v>1.3970099999999999E-2</v>
+        <v>2.6959000000000002E-3</v>
       </c>
       <c r="F57">
-        <v>8.5693900000000003E-2</v>
+        <v>1.0699800000000001E-2</v>
       </c>
       <c r="G57">
-        <v>2.5582500000000001E-2</v>
+        <v>3.6910749999999998E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>3.8989999999999999E-4</v>
+        <v>4.504E-4</v>
       </c>
       <c r="D58">
-        <v>2.1064999999999999E-3</v>
+        <v>1.4197000000000001E-3</v>
       </c>
       <c r="E58">
-        <v>1.4146799999999999E-2</v>
+        <v>4.1148000000000001E-3</v>
       </c>
       <c r="F58">
-        <v>9.0486200000000003E-2</v>
+        <v>1.53972E-2</v>
       </c>
       <c r="G58">
-        <v>2.678235E-2</v>
+        <v>5.3455250000000003E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>3.4309999999999999E-4</v>
+        <v>4.2349999999999999E-4</v>
       </c>
       <c r="D59">
-        <v>1.9772000000000001E-3</v>
+        <v>1.6831999999999999E-3</v>
       </c>
       <c r="E59">
-        <v>1.38592E-2</v>
+        <v>9.0103000000000023E-3</v>
       </c>
       <c r="F59">
-        <v>9.3201800000000001E-2</v>
+        <v>3.7545099999999998E-2</v>
       </c>
       <c r="G59">
-        <v>2.7345325E-2</v>
+        <v>1.2165525E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>4.6349999999999999E-4</v>
+        <v>4.1119999999999991E-4</v>
       </c>
       <c r="D60">
-        <v>2.3541999999999999E-3</v>
+        <v>1.1995E-3</v>
       </c>
       <c r="E60">
-        <v>1.1688199999999999E-2</v>
+        <v>3.5533000000000001E-3</v>
       </c>
       <c r="F60">
-        <v>9.7354499999999997E-2</v>
+        <v>1.2168200000000001E-2</v>
       </c>
       <c r="G60">
-        <v>2.79651E-2</v>
+        <v>4.3330499999999997E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>4.9850000000000003E-4</v>
+        <v>3.835E-4</v>
       </c>
       <c r="D61">
-        <v>2.4784999999999998E-3</v>
+        <v>1.1659000000000001E-3</v>
       </c>
       <c r="E61">
-        <v>1.08462E-2</v>
+        <v>3.2068999999999999E-3</v>
       </c>
       <c r="F61">
-        <v>9.8121199999999992E-2</v>
+        <v>1.20389E-2</v>
       </c>
       <c r="G61">
-        <v>2.79861E-2</v>
+        <v>4.1987999999999999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>5.0509999999999997E-4</v>
+        <v>3.6569999999999989E-4</v>
       </c>
       <c r="D62">
-        <v>2.4480000000000001E-3</v>
+        <v>1.0727E-3</v>
       </c>
       <c r="E62">
-        <v>1.51568E-2</v>
+        <v>3.7226999999999998E-3</v>
       </c>
       <c r="F62">
-        <v>0.1014058</v>
+        <v>1.8159999999999999E-2</v>
       </c>
       <c r="G62">
-        <v>2.9878925000000001E-2</v>
+        <v>5.8302750000000011E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>4.9379999999999986E-4</v>
+        <v>3.6479999999999998E-4</v>
       </c>
       <c r="D63">
-        <v>2.5674000000000001E-3</v>
+        <v>9.8450000000000013E-4</v>
       </c>
       <c r="E63">
-        <v>1.53534E-2</v>
+        <v>3.6045999999999999E-3</v>
       </c>
       <c r="F63">
-        <v>0.1029938</v>
+        <v>1.7976499999999999E-2</v>
       </c>
       <c r="G63">
-        <v>3.03521E-2</v>
+        <v>5.7326000000000009E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>4.5369999999999991E-4</v>
+        <v>4.3300000000000012E-4</v>
       </c>
       <c r="D64">
-        <v>2.5766999999999999E-3</v>
+        <v>1.042E-3</v>
       </c>
       <c r="E64">
-        <v>1.7331900000000001E-2</v>
+        <v>2.8345000000000002E-3</v>
       </c>
       <c r="F64">
-        <v>0.1128358</v>
+        <v>1.0882299999999999E-2</v>
       </c>
       <c r="G64">
-        <v>3.3299525000000003E-2</v>
+        <v>3.79795E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>5.4449999999999995E-4</v>
+        <v>4.035000000000001E-4</v>
       </c>
       <c r="D65">
-        <v>2.6676E-3</v>
+        <v>1.1776E-3</v>
       </c>
       <c r="E65">
-        <v>1.7534999999999999E-2</v>
+        <v>3.8337000000000002E-3</v>
       </c>
       <c r="F65">
-        <v>0.11344220000000001</v>
+        <v>1.8436899999999999E-2</v>
       </c>
       <c r="G65">
-        <v>3.3547325000000003E-2</v>
+        <v>5.962925E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="G1:G65"/>
+      <sortCondition ref="A2:A65"/>
+      <sortCondition ref="B2:B65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8195,8 +8196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8226,94 +8227,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>8.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>13</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>9.25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>9.5</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>10.25</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -8321,33 +8322,33 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -8359,76 +8360,76 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>12.75</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -8436,22 +8437,22 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>12.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -8459,22 +8460,22 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
       <c r="G12">
-        <v>13</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -8482,76 +8483,76 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -8571,209 +8572,209 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>13</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>13</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>13.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>13.5</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>14</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24">
-        <v>13.75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G25">
-        <v>13.75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -8781,22 +8782,22 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G26">
-        <v>13.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -8804,45 +8805,45 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>14</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G28">
-        <v>13.75</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -8850,42 +8851,42 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>14</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>14</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -8893,48 +8894,48 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>14</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>14</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>14.25</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -8942,45 +8943,45 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33">
-        <v>14.25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>14</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>14.25</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -8988,22 +8989,22 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>14.5</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -9011,53 +9012,53 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>14.5</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>13</v>
@@ -9066,59 +9067,59 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>13</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>14.5</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>14.75</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -9126,137 +9127,137 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G41">
-        <v>14.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
         <v>14</v>
       </c>
-      <c r="D42">
-        <v>15</v>
-      </c>
       <c r="E42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G43">
-        <v>14.75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>14</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G44">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G45">
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G46">
-        <v>15.25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -9264,68 +9265,68 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47">
-        <v>15.25</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G48">
-        <v>15.75</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G49">
-        <v>15.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -9333,373 +9334,374 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G50">
-        <v>15.75</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>16</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G51">
-        <v>16.25</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G52">
-        <v>16.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>16</v>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F53">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>16.25</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>13</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F54">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>18</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G55">
-        <v>18</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F56">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G56">
-        <v>18.75</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>19</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F58">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G58">
-        <v>19.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F59">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G59">
-        <v>19.75</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G60">
-        <v>20.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F61">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G61">
-        <v>20.75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>20.75</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>14</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F63">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G63">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F64">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G64">
-        <v>21.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F65">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G65">
-        <v>22.25</v>
+        <v>13.25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0500-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="G1:G65"/>
+      <sortCondition ref="A2:A65"/>
+      <sortCondition ref="B2:B65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/Hasil_Pengujian_Map_2_128_avg_length.xlsx
+++ b/Excel/Hasil_Pengujian_Map_2_128_avg_length.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D0103-7362-4F0E-99FB-F3C3E92521A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6728F8-28EB-49B1-BAB0-63C538971C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,462 +644,462 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>4.5369999999999991E-4</v>
+        <v>3.6870000000000013E-4</v>
       </c>
       <c r="D2">
-        <v>2.5766999999999999E-3</v>
+        <v>7.0600000000000003E-4</v>
       </c>
       <c r="E2">
-        <v>1.7331900000000001E-2</v>
+        <v>2.0051000000000001E-3</v>
       </c>
       <c r="F2">
-        <v>0.1128358</v>
+        <v>7.8796999999999999E-3</v>
       </c>
       <c r="G2">
-        <v>3.3299525000000003E-2</v>
+        <v>2.7398750000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>2.4369999999999999E-4</v>
+        <v>3.5419999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>1.0608E-3</v>
+        <v>7.1389999999999995E-4</v>
       </c>
       <c r="E3">
-        <v>4.5370000000000002E-3</v>
+        <v>2.0157E-3</v>
       </c>
       <c r="F3">
-        <v>1.8512500000000001E-2</v>
+        <v>7.9481000000000013E-3</v>
       </c>
       <c r="G3">
-        <v>6.0884999999999993E-3</v>
+        <v>2.7579750000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>4.6870000000000001E-4</v>
+        <v>4.3229999999999988E-4</v>
       </c>
       <c r="D4">
-        <v>1.6720999999999999E-3</v>
+        <v>7.8189999999999998E-4</v>
       </c>
       <c r="E4">
-        <v>8.9476999999999994E-3</v>
+        <v>2.0466999999999998E-3</v>
       </c>
       <c r="F4">
-        <v>6.8702400000000011E-2</v>
+        <v>8.0779000000000007E-3</v>
       </c>
       <c r="G4">
-        <v>1.9947724999999999E-2</v>
+        <v>2.8346999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>3.4309999999999999E-4</v>
+        <v>4.0410000000000001E-4</v>
       </c>
       <c r="D5">
-        <v>1.9772000000000001E-3</v>
+        <v>7.7379999999999994E-4</v>
       </c>
       <c r="E5">
-        <v>1.38592E-2</v>
+        <v>2.0620999999999999E-3</v>
       </c>
       <c r="F5">
-        <v>9.3201800000000001E-2</v>
+        <v>8.2317000000000015E-3</v>
       </c>
       <c r="G5">
-        <v>2.7345325E-2</v>
+        <v>2.8679249999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>4.4210000000000001E-4</v>
+        <v>3.3789999999999997E-4</v>
       </c>
       <c r="D6">
-        <v>1.3699999999999999E-3</v>
+        <v>8.8660000000000008E-4</v>
       </c>
       <c r="E6">
-        <v>5.0952999999999997E-3</v>
+        <v>2.3988E-3</v>
       </c>
       <c r="F6">
-        <v>2.1799900000000001E-2</v>
+        <v>1.0048E-2</v>
       </c>
       <c r="G6">
-        <v>7.1768250000000004E-3</v>
+        <v>3.4178250000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>5.4449999999999995E-4</v>
+        <v>3.6549999999999999E-4</v>
       </c>
       <c r="D7">
-        <v>2.6676E-3</v>
+        <v>9.7350000000000008E-4</v>
       </c>
       <c r="E7">
-        <v>1.7534999999999999E-2</v>
+        <v>2.4970000000000001E-3</v>
       </c>
       <c r="F7">
-        <v>0.11344220000000001</v>
+        <v>1.00599E-2</v>
       </c>
       <c r="G7">
-        <v>3.3547325000000003E-2</v>
+        <v>3.4739749999999998E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>5.0509999999999997E-4</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="D8">
-        <v>2.4480000000000001E-3</v>
+        <v>9.4580000000000011E-4</v>
       </c>
       <c r="E8">
-        <v>1.51568E-2</v>
+        <v>2.671499999999999E-3</v>
       </c>
       <c r="F8">
-        <v>0.1014058</v>
+        <v>1.07286E-2</v>
       </c>
       <c r="G8">
-        <v>2.9878925000000001E-2</v>
+        <v>3.6797000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>3.322E-4</v>
+        <v>3.9809999999999997E-4</v>
       </c>
       <c r="D9">
-        <v>1.2578999999999999E-3</v>
+        <v>9.7050000000000001E-4</v>
       </c>
       <c r="E9">
-        <v>4.8694000000000003E-3</v>
+        <v>2.6959000000000002E-3</v>
       </c>
       <c r="F9">
-        <v>2.2424400000000001E-2</v>
+        <v>1.0699800000000001E-2</v>
       </c>
       <c r="G9">
-        <v>7.220975000000001E-3</v>
+        <v>3.6910749999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>2.153E-4</v>
+        <v>2.5789999999999998E-4</v>
       </c>
       <c r="D10">
-        <v>8.6919999999999999E-4</v>
+        <v>9.7910000000000011E-4</v>
       </c>
       <c r="E10">
-        <v>4.0118000000000003E-3</v>
+        <v>2.7962999999999998E-3</v>
       </c>
       <c r="F10">
-        <v>1.8116E-2</v>
+        <v>1.0923199999999999E-2</v>
       </c>
       <c r="G10">
-        <v>5.8030750000000004E-3</v>
+        <v>3.7391249999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>2.9480000000000001E-4</v>
+        <v>4.0119999999999999E-4</v>
       </c>
       <c r="D11">
-        <v>1.1272999999999999E-3</v>
+        <v>1.0302E-3</v>
       </c>
       <c r="E11">
-        <v>4.7669999999999987E-3</v>
+        <v>2.7659999999999998E-3</v>
       </c>
       <c r="F11">
-        <v>1.9294200000000001E-2</v>
+        <v>1.08091E-2</v>
       </c>
       <c r="G11">
-        <v>6.3708250000000001E-3</v>
+        <v>3.7516250000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>2.5829999999999999E-4</v>
+        <v>4.3300000000000012E-4</v>
       </c>
       <c r="D12">
-        <v>1.0885999999999999E-3</v>
+        <v>1.042E-3</v>
       </c>
       <c r="E12">
-        <v>4.5079999999999999E-3</v>
+        <v>2.8345000000000002E-3</v>
       </c>
       <c r="F12">
-        <v>1.8969300000000001E-2</v>
+        <v>1.0882299999999999E-2</v>
       </c>
       <c r="G12">
-        <v>6.2060500000000003E-3</v>
+        <v>3.79795E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>4.9540000000000001E-4</v>
+        <v>3.0850000000000002E-4</v>
       </c>
       <c r="D13">
-        <v>1.7788999999999999E-3</v>
+        <v>9.6469999999999998E-4</v>
       </c>
       <c r="E13">
-        <v>9.2152000000000015E-3</v>
+        <v>2.8965000000000011E-3</v>
       </c>
       <c r="F13">
-        <v>6.8985999999999992E-2</v>
+        <v>1.10635E-2</v>
       </c>
       <c r="G13">
-        <v>2.0118875000000001E-2</v>
+        <v>3.8083000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C14">
-        <v>4.6349999999999999E-4</v>
+        <v>3.5480000000000011E-4</v>
       </c>
       <c r="D14">
-        <v>2.3541999999999999E-3</v>
+        <v>1.1086E-3</v>
       </c>
       <c r="E14">
-        <v>1.1688199999999999E-2</v>
+        <v>3.1724000000000001E-3</v>
       </c>
       <c r="F14">
-        <v>9.7354499999999997E-2</v>
+        <v>1.17792E-2</v>
       </c>
       <c r="G14">
-        <v>2.79651E-2</v>
+        <v>4.1037499999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C15">
-        <v>5.1669999999999993E-4</v>
+        <v>3.835E-4</v>
       </c>
       <c r="D15">
-        <v>3.2544000000000002E-3</v>
+        <v>1.1659000000000001E-3</v>
       </c>
       <c r="E15">
-        <v>1.1013500000000001E-2</v>
+        <v>3.2068999999999999E-3</v>
       </c>
       <c r="F15">
-        <v>6.9107000000000002E-2</v>
+        <v>1.20389E-2</v>
       </c>
       <c r="G15">
-        <v>2.0972899999999999E-2</v>
+        <v>4.1987999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>3.8989999999999999E-4</v>
+        <v>3.6820000000000001E-4</v>
       </c>
       <c r="D16">
-        <v>2.1064999999999999E-3</v>
+        <v>1.1957000000000001E-3</v>
       </c>
       <c r="E16">
-        <v>1.4146799999999999E-2</v>
+        <v>3.4577000000000002E-3</v>
       </c>
       <c r="F16">
-        <v>9.0486200000000003E-2</v>
+        <v>1.1915E-2</v>
       </c>
       <c r="G16">
-        <v>2.678235E-2</v>
+        <v>4.2341499999999999E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C17">
-        <v>3.7760000000000002E-4</v>
+        <v>4.1119999999999991E-4</v>
       </c>
       <c r="D17">
-        <v>2.1497999999999999E-3</v>
+        <v>1.1995E-3</v>
       </c>
       <c r="E17">
-        <v>1.3687100000000001E-2</v>
+        <v>3.5533000000000001E-3</v>
       </c>
       <c r="F17">
-        <v>8.4761899999999987E-2</v>
+        <v>1.2168200000000001E-2</v>
       </c>
       <c r="G17">
-        <v>2.5244099999999998E-2</v>
+        <v>4.3330499999999997E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>3.0400000000000002E-4</v>
+        <v>3.481E-4</v>
       </c>
       <c r="D18">
-        <v>9.7630000000000004E-4</v>
+        <v>9.5779999999999997E-4</v>
       </c>
       <c r="E18">
-        <v>4.1778000000000006E-3</v>
+        <v>3.3587999999999999E-3</v>
       </c>
       <c r="F18">
-        <v>1.6352499999999999E-2</v>
+        <v>1.4114099999999999E-2</v>
       </c>
       <c r="G18">
-        <v>5.4526499999999999E-3</v>
+        <v>4.6946999999999996E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C19">
-        <v>3.6870000000000013E-4</v>
+        <v>3.7869999999999999E-4</v>
       </c>
       <c r="D19">
-        <v>7.0600000000000003E-4</v>
+        <v>1.0624E-3</v>
       </c>
       <c r="E19">
-        <v>2.0051000000000001E-3</v>
+        <v>3.4594000000000001E-3</v>
       </c>
       <c r="F19">
-        <v>7.8796999999999999E-3</v>
+        <v>1.42585E-2</v>
       </c>
       <c r="G19">
-        <v>2.7398750000000001E-3</v>
+        <v>4.7897499999999997E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>3.9090000000000001E-4</v>
+        <v>4.2830000000000011E-4</v>
       </c>
       <c r="D20">
-        <v>1.2461E-3</v>
+        <v>1.3244000000000001E-3</v>
       </c>
       <c r="E20">
-        <v>4.0076999999999986E-3</v>
+        <v>4.1013000000000004E-3</v>
       </c>
       <c r="F20">
-        <v>1.55573E-2</v>
+        <v>1.5057299999999999E-2</v>
       </c>
       <c r="G20">
-        <v>5.3004999999999997E-3</v>
+        <v>5.2278250000000002E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C21">
-        <v>4.8229999999999991E-4</v>
+        <v>3.9589999999999997E-4</v>
       </c>
       <c r="D21">
-        <v>1.4303E-3</v>
+        <v>1.2612999999999999E-3</v>
       </c>
       <c r="E21">
-        <v>5.3486000000000002E-3</v>
+        <v>4.1029999999999999E-3</v>
       </c>
       <c r="F21">
-        <v>2.20389E-2</v>
+        <v>1.5413899999999999E-2</v>
       </c>
       <c r="G21">
-        <v>7.3250250000000006E-3</v>
+        <v>5.2935250000000003E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1107,68 +1107,68 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>4.4890000000000002E-4</v>
+        <v>3.9090000000000001E-4</v>
       </c>
       <c r="D22">
-        <v>1.3718000000000001E-3</v>
+        <v>1.2461E-3</v>
       </c>
       <c r="E22">
-        <v>4.9328000000000002E-3</v>
+        <v>4.0076999999999986E-3</v>
       </c>
       <c r="F22">
-        <v>2.08256E-2</v>
+        <v>1.55573E-2</v>
       </c>
       <c r="G22">
-        <v>6.8947750000000014E-3</v>
+        <v>5.3004999999999997E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C23">
-        <v>4.9379999999999986E-4</v>
+        <v>4.504E-4</v>
       </c>
       <c r="D23">
-        <v>2.5674000000000001E-3</v>
+        <v>1.4197000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>1.53534E-2</v>
+        <v>4.1148000000000001E-3</v>
       </c>
       <c r="F23">
-        <v>0.1029938</v>
+        <v>1.53972E-2</v>
       </c>
       <c r="G23">
-        <v>3.03521E-2</v>
+        <v>5.3455250000000003E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>3.7839999999999998E-4</v>
+        <v>3.0400000000000002E-4</v>
       </c>
       <c r="D24">
-        <v>1.3661999999999999E-3</v>
+        <v>9.7630000000000004E-4</v>
       </c>
       <c r="E24">
-        <v>5.1113E-3</v>
+        <v>4.1778000000000006E-3</v>
       </c>
       <c r="F24">
-        <v>2.2863399999999999E-2</v>
+        <v>1.6352499999999999E-2</v>
       </c>
       <c r="G24">
-        <v>7.4298249999999993E-3</v>
+        <v>5.4526499999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1176,137 +1176,137 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C25">
-        <v>4.0049999999999998E-4</v>
+        <v>3.4119999999999989E-4</v>
       </c>
       <c r="D25">
-        <v>1.4844000000000001E-3</v>
+        <v>1.0463E-3</v>
       </c>
       <c r="E25">
-        <v>5.8367000000000002E-3</v>
+        <v>4.2389999999999997E-3</v>
       </c>
       <c r="F25">
-        <v>3.10069E-2</v>
+        <v>1.64896E-2</v>
       </c>
       <c r="G25">
-        <v>9.6821250000000015E-3</v>
+        <v>5.5290249999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C26">
-        <v>3.7219999999999999E-4</v>
+        <v>3.6479999999999998E-4</v>
       </c>
       <c r="D26">
-        <v>1.4283E-3</v>
+        <v>9.8450000000000013E-4</v>
       </c>
       <c r="E26">
-        <v>7.1749000000000014E-3</v>
+        <v>3.6045999999999999E-3</v>
       </c>
       <c r="F26">
-        <v>3.9199400000000002E-2</v>
+        <v>1.7976499999999999E-2</v>
       </c>
       <c r="G26">
-        <v>1.2043699999999999E-2</v>
+        <v>5.7326000000000009E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C27">
-        <v>2.6249999999999998E-4</v>
+        <v>3.0939999999999988E-4</v>
       </c>
       <c r="D27">
-        <v>9.850000000000002E-4</v>
+        <v>8.9690000000000017E-4</v>
       </c>
       <c r="E27">
-        <v>4.3097999999999999E-3</v>
+        <v>3.5197999999999991E-3</v>
       </c>
       <c r="F27">
-        <v>1.9024099999999999E-2</v>
+        <v>1.84701E-2</v>
       </c>
       <c r="G27">
-        <v>6.1453499999999999E-3</v>
+        <v>5.79905E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>2.6499999999999999E-4</v>
+        <v>2.153E-4</v>
       </c>
       <c r="D28">
-        <v>9.6600000000000006E-4</v>
+        <v>8.6919999999999999E-4</v>
       </c>
       <c r="E28">
-        <v>4.2024999999999996E-3</v>
+        <v>4.0118000000000003E-3</v>
       </c>
       <c r="F28">
-        <v>1.8589399999999999E-2</v>
+        <v>1.8116E-2</v>
       </c>
       <c r="G28">
-        <v>6.005725E-3</v>
+        <v>5.8030750000000004E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C29">
-        <v>3.1260000000000012E-4</v>
+        <v>3.6569999999999989E-4</v>
       </c>
       <c r="D29">
-        <v>1.1865999999999999E-3</v>
+        <v>1.0727E-3</v>
       </c>
       <c r="E29">
-        <v>4.7000999999999996E-3</v>
+        <v>3.7226999999999998E-3</v>
       </c>
       <c r="F29">
-        <v>1.9624099999999998E-2</v>
+        <v>1.8159999999999999E-2</v>
       </c>
       <c r="G29">
-        <v>6.4558499999999991E-3</v>
+        <v>5.8302750000000011E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C30">
-        <v>4.9850000000000003E-4</v>
+        <v>4.035000000000001E-4</v>
       </c>
       <c r="D30">
-        <v>2.4784999999999998E-3</v>
+        <v>1.1776E-3</v>
       </c>
       <c r="E30">
-        <v>1.08462E-2</v>
+        <v>3.8337000000000002E-3</v>
       </c>
       <c r="F30">
-        <v>9.8121199999999992E-2</v>
+        <v>1.8436899999999999E-2</v>
       </c>
       <c r="G30">
-        <v>2.79861E-2</v>
+        <v>5.962925E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1314,45 +1314,45 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>5.5089999999999989E-4</v>
+        <v>2.6499999999999999E-4</v>
       </c>
       <c r="D31">
-        <v>2.0195E-3</v>
+        <v>9.6600000000000006E-4</v>
       </c>
       <c r="E31">
-        <v>1.12812E-2</v>
+        <v>4.2024999999999996E-3</v>
       </c>
       <c r="F31">
-        <v>6.9548199999999991E-2</v>
+        <v>1.8589399999999999E-2</v>
       </c>
       <c r="G31">
-        <v>2.0849949999999999E-2</v>
+        <v>6.005725E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>5.0540000000000003E-4</v>
+        <v>2.4369999999999999E-4</v>
       </c>
       <c r="D32">
-        <v>1.9719999999999998E-3</v>
+        <v>1.0608E-3</v>
       </c>
       <c r="E32">
-        <v>1.1534600000000001E-2</v>
+        <v>4.5370000000000002E-3</v>
       </c>
       <c r="F32">
-        <v>6.9500900000000004E-2</v>
+        <v>1.8512500000000001E-2</v>
       </c>
       <c r="G32">
-        <v>2.0878225E-2</v>
+        <v>6.0884999999999993E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1360,91 +1360,91 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>4.306E-4</v>
+        <v>2.6249999999999998E-4</v>
       </c>
       <c r="D33">
-        <v>2.2353999999999998E-3</v>
+        <v>9.850000000000002E-4</v>
       </c>
       <c r="E33">
-        <v>1.3970099999999999E-2</v>
+        <v>4.3097999999999999E-3</v>
       </c>
       <c r="F33">
-        <v>8.5693900000000003E-2</v>
+        <v>1.9024099999999999E-2</v>
       </c>
       <c r="G33">
-        <v>2.5582500000000001E-2</v>
+        <v>6.1453499999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>3.3789999999999997E-4</v>
+        <v>2.5829999999999999E-4</v>
       </c>
       <c r="D34">
-        <v>8.8660000000000008E-4</v>
+        <v>1.0885999999999999E-3</v>
       </c>
       <c r="E34">
-        <v>2.3988E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
       <c r="F34">
-        <v>1.0048E-2</v>
+        <v>1.8969300000000001E-2</v>
       </c>
       <c r="G34">
-        <v>3.4178250000000002E-3</v>
+        <v>6.2060500000000003E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>2.5789999999999998E-4</v>
+        <v>3.0529999999999999E-4</v>
       </c>
       <c r="D35">
-        <v>9.7910000000000011E-4</v>
+        <v>1.0748999999999999E-3</v>
       </c>
       <c r="E35">
-        <v>2.7962999999999998E-3</v>
+        <v>4.4188999999999999E-3</v>
       </c>
       <c r="F35">
-        <v>1.0923199999999999E-2</v>
+        <v>1.9277599999999999E-2</v>
       </c>
       <c r="G35">
-        <v>3.7391249999999998E-3</v>
+        <v>6.2691750000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>3.4119999999999989E-4</v>
+        <v>2.9480000000000001E-4</v>
       </c>
       <c r="D36">
-        <v>1.0463E-3</v>
+        <v>1.1272999999999999E-3</v>
       </c>
       <c r="E36">
-        <v>4.2389999999999997E-3</v>
+        <v>4.7669999999999987E-3</v>
       </c>
       <c r="F36">
-        <v>1.64896E-2</v>
+        <v>1.9294200000000001E-2</v>
       </c>
       <c r="G36">
-        <v>5.5290249999999999E-3</v>
+        <v>6.3708250000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,45 +1452,45 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>3.481E-4</v>
+        <v>3.1260000000000012E-4</v>
       </c>
       <c r="D37">
-        <v>9.5779999999999997E-4</v>
+        <v>1.1865999999999999E-3</v>
       </c>
       <c r="E37">
-        <v>3.3587999999999999E-3</v>
+        <v>4.7000999999999996E-3</v>
       </c>
       <c r="F37">
-        <v>1.4114099999999999E-2</v>
+        <v>1.9624099999999998E-2</v>
       </c>
       <c r="G37">
-        <v>4.6946999999999996E-3</v>
+        <v>6.4558499999999991E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>4.0410000000000001E-4</v>
+        <v>4.4890000000000002E-4</v>
       </c>
       <c r="D38">
-        <v>7.7379999999999994E-4</v>
+        <v>1.3718000000000001E-3</v>
       </c>
       <c r="E38">
-        <v>2.0620999999999999E-3</v>
+        <v>4.9328000000000002E-3</v>
       </c>
       <c r="F38">
-        <v>8.2317000000000015E-3</v>
+        <v>2.08256E-2</v>
       </c>
       <c r="G38">
-        <v>2.8679249999999999E-3</v>
+        <v>6.8947750000000014E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1498,91 +1498,91 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>3.5419999999999999E-4</v>
+        <v>4.9619999999999992E-4</v>
       </c>
       <c r="D39">
-        <v>7.1389999999999995E-4</v>
+        <v>1.4368E-3</v>
       </c>
       <c r="E39">
-        <v>2.0157E-3</v>
+        <v>4.9050000000000014E-3</v>
       </c>
       <c r="F39">
-        <v>7.9481000000000013E-3</v>
+        <v>2.0969499999999999E-2</v>
       </c>
       <c r="G39">
-        <v>2.7579750000000002E-3</v>
+        <v>6.9518749999999997E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>3.7290000000000001E-4</v>
+        <v>4.4210000000000001E-4</v>
       </c>
       <c r="D40">
-        <v>9.4580000000000011E-4</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="E40">
-        <v>2.671499999999999E-3</v>
+        <v>5.0952999999999997E-3</v>
       </c>
       <c r="F40">
-        <v>1.07286E-2</v>
+        <v>2.1799900000000001E-2</v>
       </c>
       <c r="G40">
-        <v>3.6797000000000002E-3</v>
+        <v>7.1768250000000004E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>4.2830000000000011E-4</v>
+        <v>3.322E-4</v>
       </c>
       <c r="D41">
-        <v>1.3244000000000001E-3</v>
+        <v>1.2578999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>4.1013000000000004E-3</v>
+        <v>4.8694000000000003E-3</v>
       </c>
       <c r="F41">
-        <v>1.5057299999999999E-2</v>
+        <v>2.2424400000000001E-2</v>
       </c>
       <c r="G41">
-        <v>5.2278250000000002E-3</v>
+        <v>7.220975000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>3.9589999999999997E-4</v>
+        <v>4.8229999999999991E-4</v>
       </c>
       <c r="D42">
-        <v>1.2612999999999999E-3</v>
+        <v>1.4303E-3</v>
       </c>
       <c r="E42">
-        <v>4.1029999999999999E-3</v>
+        <v>5.3486000000000002E-3</v>
       </c>
       <c r="F42">
-        <v>1.5413899999999999E-2</v>
+        <v>2.20389E-2</v>
       </c>
       <c r="G42">
-        <v>5.2935250000000003E-3</v>
+        <v>7.3250250000000006E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1590,22 +1590,22 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C43">
-        <v>4.9619999999999992E-4</v>
+        <v>3.7839999999999998E-4</v>
       </c>
       <c r="D43">
-        <v>1.4368E-3</v>
+        <v>1.3661999999999999E-3</v>
       </c>
       <c r="E43">
-        <v>4.9050000000000014E-3</v>
+        <v>5.1113E-3</v>
       </c>
       <c r="F43">
-        <v>2.0969499999999999E-2</v>
+        <v>2.2863399999999999E-2</v>
       </c>
       <c r="G43">
-        <v>6.9518749999999997E-3</v>
+        <v>7.4298249999999993E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1633,25 +1633,25 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>4.0789999999999999E-4</v>
+        <v>4.0049999999999998E-4</v>
       </c>
       <c r="D45">
-        <v>1.5498E-3</v>
+        <v>1.4844000000000001E-3</v>
       </c>
       <c r="E45">
-        <v>7.4861000000000007E-3</v>
+        <v>5.8367000000000002E-3</v>
       </c>
       <c r="F45">
-        <v>4.0048399999999998E-2</v>
+        <v>3.10069E-2</v>
       </c>
       <c r="G45">
-        <v>1.237305E-2</v>
+        <v>9.6821250000000015E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1679,48 +1679,48 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>3.0529999999999999E-4</v>
+        <v>3.7219999999999999E-4</v>
       </c>
       <c r="D47">
-        <v>1.0748999999999999E-3</v>
+        <v>1.4283E-3</v>
       </c>
       <c r="E47">
-        <v>4.4188999999999999E-3</v>
+        <v>7.1749000000000014E-3</v>
       </c>
       <c r="F47">
-        <v>1.9277599999999999E-2</v>
+        <v>3.9199400000000002E-2</v>
       </c>
       <c r="G47">
-        <v>6.2691750000000001E-3</v>
+        <v>1.2043699999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>5.5329999999999995E-4</v>
+        <v>4.2349999999999999E-4</v>
       </c>
       <c r="D48">
-        <v>2.0861999999999999E-3</v>
+        <v>1.6831999999999999E-3</v>
       </c>
       <c r="E48">
-        <v>1.14958E-2</v>
+        <v>9.0103000000000023E-3</v>
       </c>
       <c r="F48">
-        <v>7.0478799999999994E-2</v>
+        <v>3.7545099999999998E-2</v>
       </c>
       <c r="G48">
-        <v>2.1153524999999999E-2</v>
+        <v>1.2165525E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1728,137 +1728,137 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49">
-        <v>3.6549999999999999E-4</v>
+        <v>4.0789999999999999E-4</v>
       </c>
       <c r="D49">
-        <v>9.7350000000000008E-4</v>
+        <v>1.5498E-3</v>
       </c>
       <c r="E49">
-        <v>2.4970000000000001E-3</v>
+        <v>7.4861000000000007E-3</v>
       </c>
       <c r="F49">
-        <v>1.00599E-2</v>
+        <v>4.0048399999999998E-2</v>
       </c>
       <c r="G49">
-        <v>3.4739749999999998E-3</v>
+        <v>1.237305E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>3.6820000000000001E-4</v>
+        <v>4.6870000000000001E-4</v>
       </c>
       <c r="D50">
-        <v>1.1957000000000001E-3</v>
+        <v>1.6720999999999999E-3</v>
       </c>
       <c r="E50">
-        <v>3.4577000000000002E-3</v>
+        <v>8.9476999999999994E-3</v>
       </c>
       <c r="F50">
-        <v>1.1915E-2</v>
+        <v>6.8702400000000011E-2</v>
       </c>
       <c r="G50">
-        <v>4.2341499999999999E-3</v>
+        <v>1.9947724999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>3.5480000000000011E-4</v>
+        <v>4.9540000000000001E-4</v>
       </c>
       <c r="D51">
-        <v>1.1086E-3</v>
+        <v>1.7788999999999999E-3</v>
       </c>
       <c r="E51">
-        <v>3.1724000000000001E-3</v>
+        <v>9.2152000000000015E-3</v>
       </c>
       <c r="F51">
-        <v>1.17792E-2</v>
+        <v>6.8985999999999992E-2</v>
       </c>
       <c r="G51">
-        <v>4.1037499999999998E-3</v>
+        <v>2.0118875000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <v>3.0850000000000002E-4</v>
+        <v>5.5089999999999989E-4</v>
       </c>
       <c r="D52">
-        <v>9.6469999999999998E-4</v>
+        <v>2.0195E-3</v>
       </c>
       <c r="E52">
-        <v>2.8965000000000011E-3</v>
+        <v>1.12812E-2</v>
       </c>
       <c r="F52">
-        <v>1.10635E-2</v>
+        <v>6.9548199999999991E-2</v>
       </c>
       <c r="G52">
-        <v>3.8083000000000001E-3</v>
+        <v>2.0849949999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>3.0939999999999988E-4</v>
+        <v>5.0540000000000003E-4</v>
       </c>
       <c r="D53">
-        <v>8.9690000000000017E-4</v>
+        <v>1.9719999999999998E-3</v>
       </c>
       <c r="E53">
-        <v>3.5197999999999991E-3</v>
+        <v>1.1534600000000001E-2</v>
       </c>
       <c r="F53">
-        <v>1.84701E-2</v>
+        <v>6.9500900000000004E-2</v>
       </c>
       <c r="G53">
-        <v>5.79905E-3</v>
+        <v>2.0878225E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C54">
-        <v>3.7869999999999999E-4</v>
+        <v>5.1669999999999993E-4</v>
       </c>
       <c r="D54">
-        <v>1.0624E-3</v>
+        <v>3.2544000000000002E-3</v>
       </c>
       <c r="E54">
-        <v>3.4594000000000001E-3</v>
+        <v>1.1013500000000001E-2</v>
       </c>
       <c r="F54">
-        <v>1.42585E-2</v>
+        <v>6.9107000000000002E-2</v>
       </c>
       <c r="G54">
-        <v>4.7897499999999997E-3</v>
+        <v>2.0972899999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1866,259 +1866,258 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>4.3229999999999988E-4</v>
+        <v>5.5329999999999995E-4</v>
       </c>
       <c r="D55">
-        <v>7.8189999999999998E-4</v>
+        <v>2.0861999999999999E-3</v>
       </c>
       <c r="E55">
-        <v>2.0466999999999998E-3</v>
+        <v>1.14958E-2</v>
       </c>
       <c r="F55">
-        <v>8.0779000000000007E-3</v>
+        <v>7.0478799999999994E-2</v>
       </c>
       <c r="G55">
-        <v>2.8346999999999999E-3</v>
+        <v>2.1153524999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C56">
-        <v>4.0119999999999999E-4</v>
+        <v>3.7760000000000002E-4</v>
       </c>
       <c r="D56">
-        <v>1.0302E-3</v>
+        <v>2.1497999999999999E-3</v>
       </c>
       <c r="E56">
-        <v>2.7659999999999998E-3</v>
+        <v>1.3687100000000001E-2</v>
       </c>
       <c r="F56">
-        <v>1.08091E-2</v>
+        <v>8.4761899999999987E-2</v>
       </c>
       <c r="G56">
-        <v>3.7516250000000002E-3</v>
+        <v>2.5244099999999998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C57">
-        <v>3.9809999999999997E-4</v>
+        <v>4.306E-4</v>
       </c>
       <c r="D57">
-        <v>9.7050000000000001E-4</v>
+        <v>2.2353999999999998E-3</v>
       </c>
       <c r="E57">
-        <v>2.6959000000000002E-3</v>
+        <v>1.3970099999999999E-2</v>
       </c>
       <c r="F57">
-        <v>1.0699800000000001E-2</v>
+        <v>8.5693900000000003E-2</v>
       </c>
       <c r="G57">
-        <v>3.6910749999999998E-3</v>
+        <v>2.5582500000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C58">
-        <v>4.504E-4</v>
+        <v>3.8989999999999999E-4</v>
       </c>
       <c r="D58">
-        <v>1.4197000000000001E-3</v>
+        <v>2.1064999999999999E-3</v>
       </c>
       <c r="E58">
-        <v>4.1148000000000001E-3</v>
+        <v>1.4146799999999999E-2</v>
       </c>
       <c r="F58">
-        <v>1.53972E-2</v>
+        <v>9.0486200000000003E-2</v>
       </c>
       <c r="G58">
-        <v>5.3455250000000003E-3</v>
+        <v>2.678235E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>4.2349999999999999E-4</v>
+        <v>3.4309999999999999E-4</v>
       </c>
       <c r="D59">
-        <v>1.6831999999999999E-3</v>
+        <v>1.9772000000000001E-3</v>
       </c>
       <c r="E59">
-        <v>9.0103000000000023E-3</v>
+        <v>1.38592E-2</v>
       </c>
       <c r="F59">
-        <v>3.7545099999999998E-2</v>
+        <v>9.3201800000000001E-2</v>
       </c>
       <c r="G59">
-        <v>1.2165525E-2</v>
+        <v>2.7345325E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>4.1119999999999991E-4</v>
+        <v>4.6349999999999999E-4</v>
       </c>
       <c r="D60">
-        <v>1.1995E-3</v>
+        <v>2.3541999999999999E-3</v>
       </c>
       <c r="E60">
-        <v>3.5533000000000001E-3</v>
+        <v>1.1688199999999999E-2</v>
       </c>
       <c r="F60">
-        <v>1.2168200000000001E-2</v>
+        <v>9.7354499999999997E-2</v>
       </c>
       <c r="G60">
-        <v>4.3330499999999997E-3</v>
+        <v>2.79651E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C61">
-        <v>3.835E-4</v>
+        <v>4.9850000000000003E-4</v>
       </c>
       <c r="D61">
-        <v>1.1659000000000001E-3</v>
+        <v>2.4784999999999998E-3</v>
       </c>
       <c r="E61">
-        <v>3.2068999999999999E-3</v>
+        <v>1.08462E-2</v>
       </c>
       <c r="F61">
-        <v>1.20389E-2</v>
+        <v>9.8121199999999992E-2</v>
       </c>
       <c r="G61">
-        <v>4.1987999999999999E-3</v>
+        <v>2.79861E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>3.6569999999999989E-4</v>
+        <v>5.0509999999999997E-4</v>
       </c>
       <c r="D62">
-        <v>1.0727E-3</v>
+        <v>2.4480000000000001E-3</v>
       </c>
       <c r="E62">
-        <v>3.7226999999999998E-3</v>
+        <v>1.51568E-2</v>
       </c>
       <c r="F62">
-        <v>1.8159999999999999E-2</v>
+        <v>0.1014058</v>
       </c>
       <c r="G62">
-        <v>5.8302750000000011E-3</v>
+        <v>2.9878925000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>3.6479999999999998E-4</v>
+        <v>4.9379999999999986E-4</v>
       </c>
       <c r="D63">
-        <v>9.8450000000000013E-4</v>
+        <v>2.5674000000000001E-3</v>
       </c>
       <c r="E63">
-        <v>3.6045999999999999E-3</v>
+        <v>1.53534E-2</v>
       </c>
       <c r="F63">
-        <v>1.7976499999999999E-2</v>
+        <v>0.1029938</v>
       </c>
       <c r="G63">
-        <v>5.7326000000000009E-3</v>
+        <v>3.03521E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>4.3300000000000012E-4</v>
+        <v>4.5369999999999991E-4</v>
       </c>
       <c r="D64">
-        <v>1.042E-3</v>
+        <v>2.5766999999999999E-3</v>
       </c>
       <c r="E64">
-        <v>2.8345000000000002E-3</v>
+        <v>1.7331900000000001E-2</v>
       </c>
       <c r="F64">
-        <v>1.0882299999999999E-2</v>
+        <v>0.1128358</v>
       </c>
       <c r="G64">
-        <v>3.79795E-3</v>
+        <v>3.3299525000000003E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>4.035000000000001E-4</v>
+        <v>5.4449999999999995E-4</v>
       </c>
       <c r="D65">
-        <v>1.1776E-3</v>
+        <v>2.6676E-3</v>
       </c>
       <c r="E65">
-        <v>3.8337000000000002E-3</v>
+        <v>1.7534999999999999E-2</v>
       </c>
       <c r="F65">
-        <v>1.8436899999999999E-2</v>
+        <v>0.11344220000000001</v>
       </c>
       <c r="G65">
-        <v>5.962925E-3</v>
+        <v>3.3547325000000003E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="A2:A65"/>
-      <sortCondition ref="B2:B65"/>
+      <sortCondition ref="G1:G65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
